--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Audit-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DB944-6A5F-41E8-A235-03EC2F16E107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F0F2C4-594E-49BC-8763-EB0CC860406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Legende</t>
+  </si>
+  <si>
+    <t>Vorgänger</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Dauer</t>
   </si>
 </sst>
 </file>
@@ -208,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -247,34 +256,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -436,6 +417,50 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -445,39 +470,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -762,104 +789,115 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="B1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="8" customWidth="1"/>
-    <col min="2" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="7" customWidth="1"/>
+    <col min="5" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="P2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="R2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="T2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -871,17 +909,19 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -893,17 +933,19 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -915,17 +957,19 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -937,17 +981,19 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -959,17 +1005,19 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -981,43 +1029,47 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="7"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="6"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="17"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="4"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1027,19 +1079,21 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="7"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="6"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1050,19 +1104,21 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="7"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="6"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1073,19 +1129,21 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="7"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="6"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1096,39 +1154,43 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="7"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="6"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="17"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1142,16 +1204,18 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="7"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="6"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1165,16 +1229,18 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="7"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="6"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1188,16 +1254,18 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="7"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="6"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1211,39 +1279,43 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="7"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="6"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="17"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1257,16 +1329,18 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="7"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="6"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1280,16 +1354,18 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="7"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="6"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1303,16 +1379,18 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="7"/>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="6"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1326,58 +1404,157 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="7"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="6"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="6"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="29"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="18"/>
+      <c r="F32" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" t="s">
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="19"/>
+      <c r="F33" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" t="s">
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="5"/>
+      <c r="F34" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F0F2C4-594E-49BC-8763-EB0CC860406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914BFB6-FDC3-429A-AE01-7A4A1E966CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
@@ -135,13 +135,10 @@
     <t>Legende</t>
   </si>
   <si>
-    <t>Vorgänger</t>
-  </si>
-  <si>
     <t>Aufgabe</t>
   </si>
   <si>
-    <t>Dauer</t>
+    <t>Iteration</t>
   </si>
 </sst>
 </file>
@@ -185,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -413,37 +416,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -470,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -494,17 +466,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -789,90 +757,82 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y34"/>
+  <dimension ref="B1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="7" customWidth="1"/>
-    <col min="5" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -886,18 +846,16 @@
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -910,18 +868,16 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -934,18 +890,16 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -958,18 +912,16 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -982,18 +934,16 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1006,18 +956,16 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1030,17 +978,15 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="6"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="S9" s="6"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1055,21 +1001,19 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="17"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="S10" s="17"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1080,20 +1024,18 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="6"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="S11" s="6"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1105,20 +1047,18 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="6"/>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="S12" s="6"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1130,21 +1070,19 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="6"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="S13" s="6"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1155,17 +1093,15 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="6"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
+      <c r="S14" s="6"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1180,17 +1116,15 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="17"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
+      <c r="S15" s="17"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1205,17 +1139,15 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="6"/>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+      <c r="S16" s="6"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1230,17 +1162,15 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="6"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="S17" s="6"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1255,17 +1185,15 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="6"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="S18" s="6"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1280,17 +1208,15 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="6"/>
-      <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" t="s">
+      <c r="S19" s="6"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -1305,17 +1231,15 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="17"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="30" t="s">
+      <c r="S20" s="17"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1330,17 +1254,15 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="6"/>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="30" t="s">
+      <c r="S21" s="6"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1355,17 +1277,15 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="6"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+      <c r="S22" s="6"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1380,17 +1300,15 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="6"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
+      <c r="S23" s="6"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1405,17 +1323,15 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="6"/>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="31" t="s">
+      <c r="S24" s="6"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -1431,16 +1347,14 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1456,16 +1370,14 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1481,16 +1393,14 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1505,57 +1415,57 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="6"/>
-      <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="25" t="s">
+      <c r="S28" s="6"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="29"/>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="24"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="18"/>
-      <c r="F32" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="19"/>
-      <c r="F33" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="19"/>
+      <c r="D33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="5"/>
-      <c r="F34" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="27"/>
+      <c r="D35" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914BFB6-FDC3-429A-AE01-7A4A1E966CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CA9E4B-375A-4A66-8BB7-64CFFE4A35A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Risikoanalyse</t>
   </si>
   <si>
-    <t>Proof of Concept- Durchführung</t>
-  </si>
-  <si>
-    <t>Proof of Concept- Auswertung</t>
-  </si>
-  <si>
     <t>KW 45 (07.11-13.11.22)</t>
   </si>
   <si>
@@ -139,6 +133,18 @@
   </si>
   <si>
     <t>Iteration</t>
+  </si>
+  <si>
+    <t>Rapid Prototype- Auswertung</t>
+  </si>
+  <si>
+    <t>Rapid Prototype- Durchführung</t>
+  </si>
+  <si>
+    <t>Anforderungen an finalen Prototyp</t>
+  </si>
+  <si>
+    <t>selbsterklärende Folien!</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -473,6 +479,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -757,10 +764,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W35"/>
+  <dimension ref="B1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -772,58 +779,58 @@
     <row r="1" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
@@ -1006,13 +1013,13 @@
     </row>
     <row r="11" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1029,14 +1036,14 @@
     </row>
     <row r="12" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1050,16 +1057,16 @@
       <c r="S12" s="6"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1071,17 +1078,17 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="6"/>
-      <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="18"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1094,52 +1101,54 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="6"/>
-      <c r="W14" s="3"/>
+      <c r="W14" s="2"/>
     </row>
     <row r="15" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="6"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="17"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="6"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
@@ -1186,7 +1195,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="6"/>
-      <c r="W18" s="3"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
@@ -1209,52 +1218,52 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="6"/>
-      <c r="W19" s="1"/>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="6"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="6"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="17"/>
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
@@ -1301,7 +1310,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="6"/>
-      <c r="W23" s="3"/>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
@@ -1324,52 +1333,52 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="6"/>
-      <c r="W24" s="1"/>
+      <c r="W24" s="3"/>
     </row>
     <row r="25" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="6"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
@@ -1415,57 +1424,80 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="6"/>
+      <c r="S28" s="4"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="24"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="6"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="24"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="19"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="27"/>
+      <c r="D36" t="s">
         <v>35</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="19"/>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="27"/>
-      <c r="D35" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CA9E4B-375A-4A66-8BB7-64CFFE4A35A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEFC5D6-FC2A-4A18-8DD8-FF80A1B0471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
@@ -145,6 +156,12 @@
   </si>
   <si>
     <t>selbsterklärende Folien!</t>
+  </si>
+  <si>
+    <t>jens fragt nach format</t>
+  </si>
+  <si>
+    <t>noch überlegen</t>
   </si>
 </sst>
 </file>
@@ -767,7 +784,7 @@
   <dimension ref="B1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1036,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1042,8 +1059,8 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1088,7 +1105,9 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1111,7 +1130,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="18" t="s">
         <v>39</v>
       </c>
@@ -1153,7 +1172,7 @@
     </row>
     <row r="17" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEFC5D6-FC2A-4A18-8DD8-FF80A1B0471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43058DE9-582B-46F4-A519-8FF4B23D1279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -496,7 +496,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -784,7 +783,7 @@
   <dimension ref="B1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1059,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43058DE9-582B-46F4-A519-8FF4B23D1279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781CF5A-0E19-43BC-B02D-B88E8A84B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
@@ -155,13 +155,19 @@
     <t>Anforderungen an finalen Prototyp</t>
   </si>
   <si>
-    <t>selbsterklärende Folien!</t>
-  </si>
-  <si>
-    <t>jens fragt nach format</t>
-  </si>
-  <si>
-    <t>noch überlegen</t>
+    <t>Selektion von Teilen des 3D-Modells</t>
+  </si>
+  <si>
+    <t>Algorithmus der Pfadgenerierung raussuchen</t>
+  </si>
+  <si>
+    <t>Codeinspektion des PoC</t>
+  </si>
+  <si>
+    <t>Modellierung der Anwendungslogik</t>
+  </si>
+  <si>
+    <t>Verschiedene Varianten der Karte erstellen</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -412,37 +418,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -451,13 +427,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -465,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -489,13 +478,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -780,15 +770,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W36"/>
+  <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,10 +865,10 @@
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="27"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -897,7 +887,7 @@
       <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -919,7 +909,7 @@
       <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -941,10 +931,10 @@
       <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -963,10 +953,10 @@
       <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -985,7 +975,7 @@
       <c r="B9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1008,7 +998,7 @@
       <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -1031,7 +1021,7 @@
       <c r="B11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="4"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -1054,7 +1044,7 @@
       <c r="B12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1077,12 +1067,12 @@
       <c r="B13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1100,14 +1090,12 @@
       <c r="B14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1125,14 +1113,12 @@
       <c r="B15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1150,7 +1136,7 @@
       <c r="B16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -1170,10 +1156,10 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1194,9 +1180,9 @@
     </row>
     <row r="18" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C18" s="23"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1217,9 +1203,9 @@
     </row>
     <row r="19" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C19" s="23"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1240,9 +1226,9 @@
     </row>
     <row r="20" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="23"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1259,36 +1245,36 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="6"/>
-      <c r="W20" s="1"/>
+      <c r="W20" s="3"/>
     </row>
     <row r="21" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="17"/>
-      <c r="W21" s="1"/>
+      <c r="B21" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="6"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C22" s="23"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1308,33 +1294,33 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="6"/>
+      <c r="B23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="17"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1351,13 +1337,13 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="6"/>
-      <c r="W24" s="3"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1377,33 +1363,33 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="W26" s="1"/>
+      <c r="B26" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="6"/>
+      <c r="W26" s="3"/>
     </row>
     <row r="27" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1419,107 +1405,61 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="S27" s="6"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+    <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="6"/>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="24"/>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="19"/>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
       <c r="D33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="21"/>
       <c r="D34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="27"/>
-      <c r="D36" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781CF5A-0E19-43BC-B02D-B88E8A84B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D3CAC8-871E-4D60-8198-F23112A54FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <t>Modellierung der Anwendungslogik</t>
   </si>
   <si>
-    <t>Verschiedene Varianten der Karte erstellen</t>
+    <t>Pathfinding in Threee.js</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="19" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="4"/>
@@ -1211,7 +1211,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1222,11 +1222,11 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="6"/>
-      <c r="W19" s="3"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="4"/>
@@ -1257,7 +1257,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D3CAC8-871E-4D60-8198-F23112A54FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB09508-322D-42FB-A0AC-EDEC356B08D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Auditpräsentation</t>
   </si>
   <si>
-    <t>Artefakt</t>
-  </si>
-  <si>
     <t>Audit 1 (14.11.22)</t>
   </si>
   <si>
@@ -167,7 +164,28 @@
     <t>Modellierung der Anwendungslogik</t>
   </si>
   <si>
-    <t>Pathfinding in Threee.js</t>
+    <t>Pathfinding in Three.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditpräsentation </t>
+  </si>
+  <si>
+    <t>Wissenschaftliches Poster</t>
+  </si>
+  <si>
+    <t>Funktionaler Prototyp (Zuammenführung der Codes)</t>
+  </si>
+  <si>
+    <t>Auswertung der gestellten Anforderung</t>
+  </si>
+  <si>
+    <t>Implemenierung der Interface Elemente</t>
+  </si>
+  <si>
+    <t>Optimierung derDarstellung der 3D-Karte</t>
+  </si>
+  <si>
+    <t>Arbeitsmatrix</t>
   </si>
 </sst>
 </file>
@@ -454,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -486,6 +504,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -770,78 +789,80 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W34"/>
+  <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="7" customWidth="1"/>
+    <col min="3" max="8" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
@@ -996,7 +1017,7 @@
     </row>
     <row r="10" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="16"/>
@@ -1019,7 +1040,7 @@
     </row>
     <row r="11" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="4"/>
@@ -1042,7 +1063,7 @@
     </row>
     <row r="12" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="4"/>
@@ -1065,7 +1086,7 @@
     </row>
     <row r="13" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="4"/>
@@ -1077,7 +1098,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1088,7 +1109,7 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="4"/>
@@ -1134,7 +1155,7 @@
     </row>
     <row r="16" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="16"/>
@@ -1157,7 +1178,7 @@
     </row>
     <row r="17" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="4"/>
@@ -1168,7 +1189,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1180,7 +1201,7 @@
     </row>
     <row r="18" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="4"/>
@@ -1189,10 +1210,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1203,7 +1224,7 @@
     </row>
     <row r="19" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="4"/>
@@ -1212,10 +1233,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1226,7 +1247,7 @@
     </row>
     <row r="20" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="4"/>
@@ -1237,8 +1258,8 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -1249,7 +1270,7 @@
     </row>
     <row r="21" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="4"/>
@@ -1258,10 +1279,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1284,7 +1305,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -1295,7 +1316,7 @@
     </row>
     <row r="23" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="16"/>
@@ -1318,7 +1339,7 @@
     </row>
     <row r="24" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="4"/>
@@ -1341,7 +1362,7 @@
     </row>
     <row r="25" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="4"/>
@@ -1364,7 +1385,7 @@
     </row>
     <row r="26" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="4"/>
@@ -1383,11 +1404,11 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="6"/>
-      <c r="W26" s="3"/>
+      <c r="W26" s="1"/>
     </row>
     <row r="27" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="4"/>
@@ -1408,58 +1429,127 @@
       <c r="S27" s="6"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" t="s">
+    <row r="28" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="6"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="6"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="6"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="19"/>
-      <c r="D32" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="19"/>
+      <c r="D35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="21"/>
-      <c r="D34" t="s">
-        <v>35</v>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="21"/>
+      <c r="D37" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="32" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB09508-322D-42FB-A0AC-EDEC356B08D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C627D31-2487-4546-A39F-262BD846656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Figma" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>KW 44 (31.10-03.11.22)</t>
   </si>
@@ -182,17 +183,68 @@
     <t>Implemenierung der Interface Elemente</t>
   </si>
   <si>
-    <t>Optimierung derDarstellung der 3D-Karte</t>
-  </si>
-  <si>
     <t>Arbeitsmatrix</t>
+  </si>
+  <si>
+    <t>Optimierung der Darstellung der 3D-Karte</t>
+  </si>
+  <si>
+    <t>KW 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 50 </t>
+  </si>
+  <si>
+    <t>KW 51</t>
+  </si>
+  <si>
+    <t>KW 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 05 </t>
+  </si>
+  <si>
+    <t>KW 06</t>
+  </si>
+  <si>
+    <t>KW 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW 08 </t>
+  </si>
+  <si>
+    <t>KW 07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +275,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -472,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -504,7 +563,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -791,14 +867,14 @@
   </sheetPr>
   <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" style="7" customWidth="1"/>
-    <col min="3" max="8" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1259,7 +1335,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="29"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -1281,8 +1357,8 @@
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1352,8 +1428,8 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1362,7 +1438,7 @@
     </row>
     <row r="25" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="4"/>
@@ -1375,9 +1451,9 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="6"/>
@@ -1398,9 +1474,9 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="6"/>
@@ -1424,9 +1500,9 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="6"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="31"/>
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
@@ -1447,14 +1523,14 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="6"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="29"/>
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="4"/>
@@ -1470,9 +1546,9 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="6"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="29"/>
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
@@ -1493,9 +1569,9 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="6"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="29"/>
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1552,4 +1628,771 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC712C6-566D-4003-870D-FBFEDE5CA5F3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:W37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="77.140625" style="41" customWidth="1"/>
+    <col min="3" max="19" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B20" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B23" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B25" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B26" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="35"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B29" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="35"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B30" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="35"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B31" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="19"/>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C36" s="5"/>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="21"/>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Projektplan_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C627D31-2487-4546-A39F-262BD846656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E73C794-915C-4B9D-885B-0DD3206DFB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -564,21 +564,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,8 +862,8 @@
   </sheetPr>
   <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1316,8 +1311,8 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
       <c r="S19" s="6"/>
       <c r="W19" s="1"/>
     </row>
@@ -1501,8 +1496,8 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="31"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="6"/>
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="2:23" ht="16.5" x14ac:dyDescent="0.3">
@@ -1637,735 +1632,735 @@
   </sheetPr>
   <dimension ref="B2:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="77.140625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="77.140625" style="34" customWidth="1"/>
     <col min="3" max="19" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="35"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="32"/>
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="35"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="32"/>
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="35"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32"/>
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
       <c r="W31" s="1"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="18"/>
